--- a/Avancée du projet.xlsx
+++ b/Avancée du projet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanley/Library/Mobile Documents/com~apple~CloudDocs/Master TI/S9/Assurance et controle qualité/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanley/Documents/GitHub/R2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{973DE54A-69E2-4C45-908D-97E9E653A4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1D6D40-6C52-EC4E-8DBE-5E718D906D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16980" xr2:uid="{D0E8280E-36D1-BA49-BE1E-12533B2D0FFE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Documentation John Deere</t>
   </si>
@@ -247,9 +247,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,31 +259,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D066E1E6-8CBB-B745-80D1-C42C56350D17}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,139 +633,135 @@
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="5"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -806,7 +801,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Avancée du projet.xlsx
+++ b/Avancée du projet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanley/Documents/GitHub/R2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8038bbb10574efef/Semestre 10/Adaptation et réécriture/R2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1D6D40-6C52-EC4E-8DBE-5E718D906D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2E1D6D40-6C52-EC4E-8DBE-5E718D906D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B941098-5747-A248-A3EF-93628404F4FF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16980" xr2:uid="{D0E8280E-36D1-BA49-BE1E-12533B2D0FFE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Documentation John Deere</t>
   </si>
@@ -622,7 +622,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -736,7 +736,9 @@
       <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/Avancée du projet.xlsx
+++ b/Avancée du projet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8038bbb10574efef/Semestre 10/Adaptation et réécriture/R2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alma\Documents\GitHub\R2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2E1D6D40-6C52-EC4E-8DBE-5E718D906D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B941098-5747-A248-A3EF-93628404F4FF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B631A4F4-0365-4347-AE5B-AA36374DD9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16980" xr2:uid="{D0E8280E-36D1-BA49-BE1E-12533B2D0FFE}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="18775" windowHeight="10067" xr2:uid="{D0E8280E-36D1-BA49-BE1E-12533B2D0FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="État de la doc" sheetId="1" r:id="rId1"/>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Documentation John Deere</t>
   </si>
@@ -115,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -622,18 +611,18 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.65"/>
   <cols>
-    <col min="1" max="1" width="42.1640625" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.19921875" customWidth="1"/>
+    <col min="2" max="2" width="24.796875" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -641,13 +630,13 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="16" customHeight="1">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="32.950000000000003" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -661,7 +650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
@@ -673,7 +662,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="12"/>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -683,7 +672,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="12"/>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -693,7 +682,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="13"/>
       <c r="B7" s="7" t="s">
         <v>7</v>
@@ -701,7 +690,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
@@ -713,7 +702,7 @@
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="12"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -723,15 +712,17 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="12"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="13"/>
       <c r="B11" s="7" t="s">
         <v>7</v>
@@ -741,25 +732,25 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="14"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="15"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="15"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="16"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -797,72 +788,72 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.65"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>12</v>
       </c>

--- a/Avancée du projet.xlsx
+++ b/Avancée du projet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alma\Documents\GitHub\R2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaya\Documents\GitHub\R2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B631A4F4-0365-4347-AE5B-AA36374DD9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB525B3-D8D4-4F77-BD82-ADC085B506CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="18775" windowHeight="10067" xr2:uid="{D0E8280E-36D1-BA49-BE1E-12533B2D0FFE}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="18775" windowHeight="10651" xr2:uid="{D0E8280E-36D1-BA49-BE1E-12533B2D0FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="État de la doc" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Documentation John Deere</t>
   </si>
@@ -104,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -610,19 +610,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D066E1E6-8CBB-B745-80D1-C42C56350D17}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="105" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.65"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.19921875" customWidth="1"/>
-    <col min="2" max="2" width="24.796875" customWidth="1"/>
-    <col min="3" max="3" width="20.796875" customWidth="1"/>
-    <col min="4" max="4" width="17.69921875" customWidth="1"/>
+    <col min="1" max="1" width="42.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" customHeight="1">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -630,13 +630,13 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" ht="16" customHeight="1">
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="32.950000000000003" customHeight="1">
+    <row r="3" spans="1:4" ht="32.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -650,7 +650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
@@ -662,7 +662,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -672,7 +672,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="5" t="s">
         <v>6</v>
@@ -682,15 +682,17 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
@@ -702,7 +704,7 @@
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -712,7 +714,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="5" t="s">
         <v>6</v>
@@ -722,7 +724,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="7" t="s">
         <v>7</v>
@@ -732,25 +734,25 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -788,72 +790,72 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.65"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>

--- a/Avancée du projet.xlsx
+++ b/Avancée du projet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaya\Documents\GitHub\R2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB525B3-D8D4-4F77-BD82-ADC085B506CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167D10B0-3CAA-473B-871B-1E28501F1610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="18775" windowHeight="10651" xr2:uid="{D0E8280E-36D1-BA49-BE1E-12533B2D0FFE}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Documentation John Deere</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Guide Prêt pour moissonneuses-batteuses série S (tournesol)</t>
+  </si>
+  <si>
+    <t>Terminé</t>
   </si>
 </sst>
 </file>
@@ -610,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D066E1E6-8CBB-B745-80D1-C42C56350D17}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="105" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
@@ -690,7 +693,9 @@
       <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
